--- a/data/raw_data/FL/pop_est_2010-2019_fl.xlsx
+++ b/data/raw_data/FL/pop_est_2010-2019_fl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\FL\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\FL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6AD8FB-616E-42DE-BBB9-71A04E4B5092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4DB1C7-B07F-4102-AFDE-2FE9572AF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9105" yWindow="120" windowWidth="19080" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
   <si>
     <t>Florida</t>
   </si>
@@ -1234,12 +1234,6 @@
     <t>Putnam</t>
   </si>
   <si>
-    <t>St Johns</t>
-  </si>
-  <si>
-    <t>St Lucie</t>
-  </si>
-  <si>
     <t>Santa Rosa</t>
   </si>
   <si>
@@ -1271,6 +1265,12 @@
   </si>
   <si>
     <t>Washington</t>
+  </si>
+  <si>
+    <t>St.Johns</t>
+  </si>
+  <si>
+    <t>St.Lucie</t>
   </si>
 </sst>
 </file>
@@ -1961,8 +1961,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:M72"/>
     </sheetView>
   </sheetViews>
@@ -4964,10 +4964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF13274-7CB8-4A73-86AA-1EDF8F8C8181}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B56">
         <v>190039</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B57">
         <v>277789</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58">
         <v>151372</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59">
         <v>379448</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B60">
         <v>422718</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B61">
         <v>93420</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B62">
         <v>41551</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B63">
         <v>22570</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64">
         <v>15535</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B65">
         <v>494593</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B66">
         <v>30776</v>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67">
         <v>55043</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B68">
         <v>24896</v>
@@ -7762,47 +7762,6 @@
       </c>
       <c r="M68">
         <v>25473</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>18801310</v>
-      </c>
-      <c r="C69">
-        <v>18804564</v>
-      </c>
-      <c r="D69">
-        <v>18845537</v>
-      </c>
-      <c r="E69">
-        <v>19053237</v>
-      </c>
-      <c r="F69">
-        <v>19297822</v>
-      </c>
-      <c r="G69">
-        <v>19545621</v>
-      </c>
-      <c r="H69">
-        <v>19845911</v>
-      </c>
-      <c r="I69">
-        <v>20209042</v>
-      </c>
-      <c r="J69">
-        <v>20613477</v>
-      </c>
-      <c r="K69">
-        <v>20963613</v>
-      </c>
-      <c r="L69">
-        <v>21244317</v>
-      </c>
-      <c r="M69">
-        <v>21477737</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/FL/pop_est_2010-2019_fl.xlsx
+++ b/data/raw_data/FL/pop_est_2010-2019_fl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\FL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4DB1C7-B07F-4102-AFDE-2FE9572AF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EC33D9-3118-484E-B0BB-4E9D1DAFD639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="120" windowWidth="19080" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="1545" windowWidth="19080" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -1267,10 +1267,10 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>St.Johns</t>
-  </si>
-  <si>
-    <t>St.Lucie</t>
+    <t>ST. JOHNS</t>
+  </si>
+  <si>
+    <t>ST. LUCIE</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1320,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1524,7 +1530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1620,6 +1626,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1961,8 +1968,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:M72"/>
     </sheetView>
   </sheetViews>
@@ -4966,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF13274-7CB8-4A73-86AA-1EDF8F8C8181}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7232,7 +7239,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="31" t="s">
         <v>145</v>
       </c>
       <c r="B56">
@@ -7273,7 +7280,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="31" t="s">
         <v>146</v>
       </c>
       <c r="B57">
@@ -7766,5 +7773,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>